--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_5.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -34,7 +34,19 @@
     <t>Specificity</t>
   </si>
   <si>
+    <t>62.50%</t>
+  </si>
+  <si>
     <t>100.00%</t>
+  </si>
+  <si>
+    <t>57.14%</t>
+  </si>
+  <si>
+    <t>72.73%</t>
+  </si>
+  <si>
+    <t>25.00%</t>
   </si>
 </sst>
 </file>
@@ -426,16 +438,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -443,19 +455,19 @@
         <v>0.55</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -463,19 +475,19 @@
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -483,19 +495,19 @@
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -503,19 +515,19 @@
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -523,19 +535,19 @@
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -543,19 +555,19 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -563,19 +575,19 @@
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -583,19 +595,19 @@
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_5.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="10">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -34,19 +34,16 @@
     <t>Specificity</t>
   </si>
   <si>
-    <t>62.50%</t>
+    <t>Tested Instance</t>
   </si>
   <si>
     <t>100.00%</t>
   </si>
   <si>
-    <t>57.14%</t>
-  </si>
-  <si>
-    <t>72.73%</t>
-  </si>
-  <si>
-    <t>25.00%</t>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>Signal_16s</t>
   </si>
 </sst>
 </file>
@@ -404,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,28 +426,34 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0.5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.55</v>
       </c>
@@ -467,10 +470,13 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.6</v>
       </c>
@@ -487,10 +493,13 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.65</v>
       </c>
@@ -507,10 +516,13 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.7</v>
       </c>
@@ -527,10 +539,13 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.75</v>
       </c>
@@ -547,10 +562,13 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0.8</v>
       </c>
@@ -567,10 +585,13 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.85</v>
       </c>
@@ -587,10 +608,13 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -607,7 +631,10 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_5.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -34,16 +34,19 @@
     <t>Specificity</t>
   </si>
   <si>
-    <t>Tested Instance</t>
+    <t>98.18%</t>
   </si>
   <si>
     <t>100.00%</t>
   </si>
   <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>Signal_16s</t>
+    <t>80.00%</t>
+  </si>
+  <si>
+    <t>88.89%</t>
+  </si>
+  <si>
+    <t>98.04%</t>
   </si>
 </sst>
 </file>
@@ -401,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,126 +429,108 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0.5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>0.55</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>0.75</v>
       </c>
@@ -562,13 +547,10 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>0.8</v>
       </c>
@@ -585,13 +567,10 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>0.85</v>
       </c>
@@ -608,13 +587,10 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -631,10 +607,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_5.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="9">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -34,19 +34,13 @@
     <t>Specificity</t>
   </si>
   <si>
-    <t>98.18%</t>
-  </si>
-  <si>
-    <t>100.00%</t>
-  </si>
-  <si>
-    <t>80.00%</t>
-  </si>
-  <si>
-    <t>88.89%</t>
-  </si>
-  <si>
-    <t>98.04%</t>
+    <t>Tested Instance</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>Signal_16s</t>
   </si>
 </sst>
 </file>
@@ -404,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,108 +423,126 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0.5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.55</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.75</v>
       </c>
@@ -549,8 +561,11 @@
       <c r="F7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0.8</v>
       </c>
@@ -569,8 +584,11 @@
       <c r="F8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.85</v>
       </c>
@@ -589,8 +607,11 @@
       <c r="F9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -608,6 +629,9 @@
       </c>
       <c r="F10" t="s">
         <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
